--- a/mapping/mml_lifestyle_mapping.xlsx
+++ b/mapping/mml_lifestyle_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10080"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,82 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>mmlLs:LifestyleModule</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生活習慣病モジュール</t>
+    <t>mml_lifestyle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlLs:occupation</t>
+  </si>
+  <si>
+    <t>mmlLs:tobacco</t>
+  </si>
+  <si>
+    <t>mmlLs:alcohol</t>
+  </si>
+  <si>
+    <t>mmlLs:other</t>
+  </si>
+  <si>
+    <t>Archetype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exposed risk from occupation</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tobacco Use Summary</t>
+  </si>
+  <si>
+    <t>/data/Usage status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alcohol Use Summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other substance use summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/data/Overall Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0003]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0002]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0002]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0002]</t>
+  </si>
+  <si>
+    <t>生活歴モジュール</t>
     <rPh sb="0" eb="2">
       <t>セイカツ</t>
     </rPh>
-    <rPh sb="2" eb="5">
-      <t>シュウカンビョウ</t>
+    <rPh sb="2" eb="3">
+      <t>レキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mml_lifestyle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlLs:occupation</t>
-  </si>
-  <si>
-    <t>mmlLs:tobacco</t>
-  </si>
-  <si>
-    <t>mmlLs:alcohol</t>
-  </si>
-  <si>
-    <t>mmlLs:other</t>
-  </si>
-  <si>
-    <t>Archetype</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exposed risk from occupation</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tobacco Use Summary</t>
-  </si>
-  <si>
-    <t>/data/Usage status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Alcohol Use Summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other substance use summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/data/Overall Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0002]</t>
+    <t>occurrence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必ず1回出現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必ず1回出現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0回もしくは1回出現</t>
   </si>
 </sst>
 </file>
@@ -456,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,86 +485,101 @@
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="2"/>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
   </sheetData>

--- a/mapping/mml_lifestyle_mapping.xlsx
+++ b/mapping/mml_lifestyle_mapping.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>mmlLs:LifestyleModule</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mml_lifestyle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mmlLs:occupation</t>
   </si>
   <si>
@@ -35,46 +31,14 @@
     <t>mmlLs:alcohol</t>
   </si>
   <si>
-    <t>mmlLs:other</t>
-  </si>
-  <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>element</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exposed risk from occupation</t>
-  </si>
-  <si>
     <t>path</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Tobacco Use Summary</t>
-  </si>
-  <si>
-    <t>/data/Usage status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Alcohol Use Summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Other substance use summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/data/Overall Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0003]</t>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0002]</t>
   </si>
   <si>
@@ -84,29 +48,82 @@
     <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0002]</t>
   </si>
   <si>
-    <t>生活歴モジュール</t>
-    <rPh sb="0" eb="2">
-      <t>セイカツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>occurrence</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必ず1回出現</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必ず1回出現</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0回もしくは1回出現</t>
+    <t>Elements　</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Datatypes</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Table id</t>
+  </si>
+  <si>
+    <t>mmlLs:LifestyleModule</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>1.4.</t>
+  </si>
+  <si>
+    <t>mmlLs:other　</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.exposure.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0010 and name/value='Exposure Details']/items[at0013]</t>
+  </si>
+  <si>
+    <t>exposure details/Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-COMPOSITION.lifestyle_factors.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usage status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-EVALUATION.substance_use_summary.v1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -146,12 +163,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -160,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,104 +518,156 @@
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="2"/>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F8" s="3"/>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml_lifestyle_mapping.xlsx
+++ b/mapping/mml_lifestyle_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>mmlLs:LifestyleModule</t>
     <phoneticPr fontId="1"/>
@@ -39,15 +39,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
     <t>Elements　</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0010 and name/value='Exposure Details']/items[at0013]</t>
-  </si>
-  <si>
     <t>exposure details/Description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -114,15 +102,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>usage status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>openEHR-EHR-EVALUATION.substance_use_summary.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0005]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0010 and name/value='Exposure Details']/items[at0013]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Occupational"で固定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Substance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Tobacco"で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0005]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Alcohol"で固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0005]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -155,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -192,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,15 +600,16 @@
     <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.375" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,137 +618,212 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="H6" t="s">
-        <v>28</v>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_lifestyle_mapping.xlsx
+++ b/mapping/mml_lifestyle_mapping.xlsx
@@ -589,16 +589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="53.375" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>

--- a/mapping/mml_lifestyle_mapping.xlsx
+++ b/mapping/mml_lifestyle_mapping.xlsx
@@ -2,21 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15240" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>mmlLs:LifestyleModule</t>
     <phoneticPr fontId="1"/>
@@ -90,63 +88,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>openEHR-EHR-COMPOSITION.lifestyle_factors.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>exposure details/Description</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-COMPOSITION.lifestyle_factors.v1</t>
+    <t>data_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Occupational"で固定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openEHR-EHR-EVALUATION.substance_use_summary.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_CODED_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0005]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0010 and name/value='Exposure Details']/items[at0013]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*値は"Occupational"で固定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Substance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DV_CODED_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,23 +134,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0005]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1 and name/value='Tobacco Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
+    <t>openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -190,11 +148,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1 and name/value='Alcohol Use Summary']/data[at0001]/items[at0005]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0007 and name/value='Consumption Summary']/items[at0013]/value</t>
+    <t>openEHR-EHR-EVALUATION.substance_use_summary.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0005]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commentA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commentO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubstanceT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubstanceA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1]/data[at0001]/items[at0005]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-alcohol.v1]/data[at0001]/items[at0007]/items[at0013]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1]/data[at0001]/items[at0005]/defining_code/code_string</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary-tobacco.v1]/data[at0001]/items[at0007]/items[at0013]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.exposure.v1 and name/value='Exposed risk from occupation']/data[at0001]/items[at0010]/items[at0013]/value</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.substance_use_summary.v1 and name/value='Other Substance Use Summary']/data[at0001]/items[at0007]/items[at0013]/value</t>
+  </si>
+  <si>
+    <t>commentT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -202,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +219,15 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -265,12 +270,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,14 +291,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -587,19 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
@@ -621,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
@@ -646,8 +680,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -657,14 +691,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
@@ -676,14 +710,14 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -693,24 +727,24 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
@@ -720,16 +754,16 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -739,24 +773,24 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3"/>
@@ -766,16 +800,16 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -785,24 +819,24 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3"/>
@@ -814,13 +848,13 @@
       </c>
       <c r="F11" s="3"/>
       <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
@@ -828,33 +862,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="I5" location="Sheet2!$B$109" display="exposure details/Description"/>
+    <hyperlink ref="I6" location="Sheet2!$B$93" display="category"/>
+    <hyperlink ref="I7" location="Sheet2!$B$166" display="commentT"/>
+    <hyperlink ref="I8" location="Sheet2!$B$150" display="SubstanceT"/>
+    <hyperlink ref="I9" location="Sheet2!$B$66" display="commentA"/>
+    <hyperlink ref="I10" location="Sheet2!$B$50" display="SubstanceA"/>
+    <hyperlink ref="I11" location="Sheet2!$B$199" display="commentO"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>